--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,19 +464,24 @@
           <t>RollNum</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>count_atten</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ABDELMONEM</t>
+          <t>MAKIN</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Subject_name</t>
+          <t>CTkComboBox</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -486,13 +491,214 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>08-09-2024</t>
+          <t>10-09-2024</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>15-BT042</t>
-        </is>
+          <t>1234567890</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>44</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>MAKIN</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>CTkComboBox</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>11-09-2024</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1234567890</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>49</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>MAKIN</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>CSS</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>09-09-2024</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1234567890</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>57</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>MAKIN</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>CTkComboBox</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>12-09-2024</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1234567890</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>74</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>MAKIN</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>CTkComboBox</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>06-09-2024</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1234567890</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>130</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>MAKIN</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>CTkComboBox</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>03-09-2024</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1234567890</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>147</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>MAKIN</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>CTkComboBox</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>19-09-2024</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1234567890</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
